--- a/Assignment_1/Scripts_Greg/Summary_exploration_individual_features.xlsx
+++ b/Assignment_1/Scripts_Greg/Summary_exploration_individual_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcorl\OneDrive\Documents\KUL\Master 2\Semester 2\Advanced analytics in business - Big data platforms and technologies\Programming\Advanced_Analytics_2024\Assignment_1\Scripts_Greg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5DBC61-F2CC-4D1E-9E16-8CE511060610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D768442-3918-4675-9604-F51D561AB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61A1F6B6-2D1D-4642-AF4F-6183E5833D5B}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E368C16-8F59-4344-BD79-E28C75C05C85}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
